--- a/data/trans_dic/P16_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud autopercibida regular o mala</t>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,24%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>43,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 20,36</t>
+          <t>1,96; 18,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 22,3</t>
+          <t>4,92; 26,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 30,99</t>
+          <t>8,0; 35,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,7; 32,9</t>
+          <t>9,27; 43,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 40,28</t>
+          <t>11,85; 52,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 41,1</t>
+          <t>23,97; 51,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,9; 47,03</t>
+          <t>27,47; 56,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,96; 69,94</t>
+          <t>30,7; 58,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 29,23</t>
+          <t>27,3; 57,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 29,73</t>
+          <t>38,17; 71,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,65; 37,0</t>
+          <t>14,05; 32,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,5; 54,24</t>
+          <t>17,14; 37,99</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>21,28; 44,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 47,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27,52; 57,56</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>23,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 13,03</t>
+          <t>3,99; 12,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,92</t>
+          <t>5,37; 14,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,5</t>
+          <t>5,04; 14,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,79</t>
+          <t>8,66; 19,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 24,25</t>
+          <t>12,35; 34,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 18,55</t>
+          <t>11,49; 22,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 22,39</t>
+          <t>10,19; 21,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,38; 27,5</t>
+          <t>14,15; 25,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,38</t>
+          <t>14,39; 26,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 14,02</t>
+          <t>20,72; 34,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 16,08</t>
+          <t>8,95; 16,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 19,29</t>
+          <t>9,31; 16,28</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,78; 18,4</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 20,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 31,72</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 13,9</t>
+          <t>2,87; 12,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 18,71</t>
+          <t>4,83; 21,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 17,4</t>
+          <t>4,0; 21,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 16,64</t>
+          <t>5,11; 19,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,31</t>
+          <t>6,75; 21,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,32</t>
+          <t>5,63; 14,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 19,61</t>
+          <t>3,08; 11,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,66</t>
+          <t>7,17; 17,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,54</t>
+          <t>5,91; 15,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,12</t>
+          <t>9,62; 20,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,36</t>
+          <t>5,57; 12,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,75</t>
+          <t>5,23; 13,39</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 16,7</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 14,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 18,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 17,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 23,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 31,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 17,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 22,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 10,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 14,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 15,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,46; 18,78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 28,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 19,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,97; 19,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,24; 23,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 22,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 34,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 14,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 15,96</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,35; 18,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 19,62</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 28,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17842</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21079</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31319</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57272</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42549</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56240</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50157</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50029</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>114226</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50417</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74082</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>71237</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>81348</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>171498</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2029; 18873</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6340; 34350</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8440; 37172</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10579; 49111</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21058; 93072</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28239; 60399</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38193; 78294</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35455; 67881</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32848; 68658</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>81670; 152578</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31063; 72779</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45928; 101776</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>47010; 97273</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>51781; 111026</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>107779; 225402</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27192</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39811</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33756</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53329</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>108138</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62953</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71225</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72775</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72411</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>133826</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>90144</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>111037</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>106531</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>125739</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>241964</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14611; 46584</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22942; 60834</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18948; 54208</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34614; 77147</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63580; 176888</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44891; 86442</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47332; 99523</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53901; 97474</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52978; 97099</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>102500; 170173</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>67727; 123591</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83000; 145138</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81655; 139329</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>96601; 156408</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>192352; 320198</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18908</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33735</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25399</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42470</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35083</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>28172</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39214</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31843</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57515</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>53991</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>61908</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>64614</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>59524</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>99984</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8201; 35555</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16079; 71850</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11304; 60937</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14064; 54648</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23678; 76769</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20239; 53910</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13205; 47427</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24695; 59093</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19354; 51356</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38441; 83623</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35968; 77864</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39799; 101931</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>44650; 104693</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>39847; 86461</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>71717; 137885</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>53968</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>91389</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>80235</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>112329</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>207880</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>140584</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>155637</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>162146</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>154282</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>305566</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>194553</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>247026</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>242381</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>266611</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>513446</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>34730; 75500</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62916; 131168</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>55280; 120178</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>82511; 148163</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>152050; 292681</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>110687; 173508</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>123540; 200130</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>128185; 198479</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>122648; 187189</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>253818; 384579</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>156586; 235143</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>198250; 306549</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>198268; 291432</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>222528; 314842</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>436825; 617076</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
